--- a/Diodes/HGCAL/Hamburg_Analysis/Hamburg_Analysis_HGCAL.xlsx
+++ b/Diodes/HGCAL/Hamburg_Analysis/Hamburg_Analysis_HGCAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewkent/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewkent/Library/Mobile Documents/com~apple~CloudDocs/Brown/CERN_CMS_Silicon_Sensor/Diodes/HGCAL/Hamburg_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F20ACA2-A84B-C74F-BE94-43774BDDAE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9C2D43-35B8-0D4C-A6EF-53B20B043D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="500" windowWidth="21760" windowHeight="21900" xr2:uid="{39AA2663-7397-6045-A1E0-23FAEDBC3253}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25800" windowHeight="17720" xr2:uid="{39AA2663-7397-6045-A1E0-23FAEDBC3253}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
